--- a/AGL_KS_mod4/AGL_KS_mod4_task3_prod.xlsx
+++ b/AGL_KS_mod4/AGL_KS_mod4_task3_prod.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
-    <sheet name="AGL_KS_mod4_online_knowlton_agl" sheetId="1" r:id="rId1"/>
+    <sheet name="task" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1030,9 +1030,6 @@
       <c r="I2">
         <v>3</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -1062,9 +1059,6 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1094,9 +1088,6 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1126,9 +1117,6 @@
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1157,9 +1145,6 @@
       </c>
       <c r="I6">
         <v>3</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1190,9 +1175,6 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1222,9 +1204,6 @@
       <c r="I8">
         <v>3</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1254,9 +1233,6 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1286,9 +1262,6 @@
       <c r="I10">
         <v>2</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -1318,9 +1291,6 @@
       <c r="I11">
         <v>2</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1350,9 +1320,6 @@
       <c r="I12">
         <v>3</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1382,9 +1349,6 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1414,9 +1378,6 @@
       <c r="I14">
         <v>3</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1446,9 +1407,6 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1478,11 +1436,8 @@
       <c r="I16">
         <v>2</v>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1510,11 +1465,8 @@
       <c r="I17">
         <v>2</v>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1542,11 +1494,8 @@
       <c r="I18">
         <v>3</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1574,11 +1523,8 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1606,11 +1552,8 @@
       <c r="I20">
         <v>3</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1638,11 +1581,8 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1670,11 +1610,8 @@
       <c r="I22">
         <v>2</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1702,11 +1639,8 @@
       <c r="I23">
         <v>2</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1734,11 +1668,8 @@
       <c r="I24">
         <v>3</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1764,9 +1695,6 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
         <v>1</v>
       </c>
     </row>
